--- a/result/ЗООМ.xlsx
+++ b/result/ЗООМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>803</v>
+        <v>994</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>880</v>
+        <v>805</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>582</v>
+        <v>825</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>905</v>
+        <v>945</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>886</v>
+        <v>903</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>913</v>
+        <v>622</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>533</v>
+        <v>605</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>531</v>
+        <v>817</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>911</v>
+        <v>813</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>974</v>
+        <v>744</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>507</v>
+        <v>738</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>585</v>
+        <v>786</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>688</v>
+        <v>837</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>559</v>
+        <v>806</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>866</v>
+        <v>990</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>677</v>
+        <v>884</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>530</v>
+        <v>664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>749</v>
+        <v>829</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>694</v>
+        <v>596</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>553</v>
+        <v>930</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>809</v>
+        <v>761</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>503</v>
+        <v>920</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>848</v>
+        <v>995</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>783</v>
+        <v>726</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>655</v>
+        <v>562</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>815</v>
+        <v>773</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>862</v>
+        <v>776</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>975</v>
+        <v>630</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>668</v>
+        <v>600</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>809</v>
+        <v>646</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>505</v>
+        <v>622</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>953</v>
+        <v>559</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>504</v>
+        <v>841</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>821</v>
+        <v>532</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1733,23 +1733,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 01шт</t>
+          <t>ЗООМ EXLC СОБ МОЛ ВСЕ Tuna 150г 12шт</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>8009470299961</t>
+          <t>8009470060493</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>4.63</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1759,23 +1761,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 06шт</t>
+          <t>ЗООМ EXLC СОБ МОЛ ВСЕ Tuna 150г 24шт</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>8009470299961</t>
+          <t>8009470060493</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>4.63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1785,23 +1789,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 12шт</t>
+          <t>ЗООМ EXLC СОБ МОЛ ВСЕ Tuna 150г 36шт</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>8009470299961</t>
+          <t>8009470060493</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>4.63</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1811,23 +1817,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 18шт</t>
+          <t>ЗООМ EXLC СОБ МОЛ ВСЕ Tuna 150г 48шт</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>8009470299961</t>
+          <t>8009470060493</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>4.63</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1837,7 +1845,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 06шт</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1846,14 +1854,16 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>3.97</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1863,7 +1873,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 30шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 12шт</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1872,14 +1882,16 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>3.97</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1889,7 +1901,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 18шт</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1898,14 +1910,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>3.97</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1915,16 +1929,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 20кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 24шт</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>8009470310017</t>
+          <t>8009470299961</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>652</v>
+        <v>850</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1932,7 +1946,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>176.47</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="55">
@@ -1943,16 +1957,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 30шт</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>8009470297158</t>
+          <t>8009470299961</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1960,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>25.3</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="56">
@@ -1971,16 +1985,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 36шт</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>8009470297158</t>
+          <t>8009470299961</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>867</v>
+        <v>987</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1988,7 +2002,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>25.3</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="57">
@@ -1999,16 +2013,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 3шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 20кг 1шт</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>8009470297158</t>
+          <t>8009470310017</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>912</v>
+        <v>503</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2016,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>25.3</v>
+        <v>176.47</v>
       </c>
     </row>
     <row r="58">
@@ -2027,16 +2041,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 7кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 1шт</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8009470297264</t>
+          <t>8009470297158</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2044,7 +2058,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>65.40000000000001</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="59">
@@ -2055,16 +2069,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 7кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 2шт</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>8009470297264</t>
+          <t>8009470297158</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2072,7 +2086,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>65.40000000000001</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="60">
@@ -2083,16 +2097,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 20кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 3шт</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>8009470310000</t>
+          <t>8009470297158</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>663</v>
+        <v>928</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2100,7 +2114,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>205.67</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="61">
@@ -2111,16 +2125,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 7кг 1шт</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>8009470297165</t>
+          <t>8009470297264</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>595</v>
+        <v>944</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2128,7 +2142,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>27.07</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -2139,16 +2153,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 7кг 2шт</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>8009470297165</t>
+          <t>8009470297264</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>819</v>
+        <v>594</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2156,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>27.07</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2167,16 +2181,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 3шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 06шт</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>8009470297165</t>
+          <t>8009470300735</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>996</v>
+        <v>732</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2184,7 +2198,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>27.07</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="64">
@@ -2195,16 +2209,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 7кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 12шт</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>8009470297295</t>
+          <t>8009470300735</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>842</v>
+        <v>992</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2212,7 +2226,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>77.2</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="65">
@@ -2223,16 +2237,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 7кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 18шт</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>8009470297295</t>
+          <t>8009470300735</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>714</v>
+        <v>771</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2240,7 +2254,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>77.2</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="66">
@@ -2251,7 +2265,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 06шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 24шт</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2260,14 +2274,16 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2277,7 +2293,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 30шт</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2286,14 +2302,16 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2303,7 +2321,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 18шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 36шт</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2312,14 +2330,16 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2329,23 +2349,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 20кг 1шт</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>8009470300735</t>
+          <t>8009470310062</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>190.58</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2355,23 +2377,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 30шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 1шт</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>8009470300735</t>
+          <t>8009470297189</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>26.99</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2381,23 +2405,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 2шт</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>8009470300735</t>
+          <t>8009470297189</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>26.99</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2407,16 +2433,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 20кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 3шт</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>8009470310062</t>
+          <t>8009470297189</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>800</v>
+        <v>949</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2424,7 +2450,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>190.58</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="73">
@@ -2435,23 +2461,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг 1шт</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>8009470297189</t>
+          <t>8009470297301</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>71.17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2461,23 +2489,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг 2шт</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>8009470297189</t>
+          <t>8009470297301</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>71.17</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2487,23 +2517,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 3шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 12шт</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>8009470297189</t>
+          <t>8009470300919</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2513,16 +2545,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 24шт</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>8009470297301</t>
+          <t>8009470300919</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2530,7 +2562,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>68.34999999999999</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="77">
@@ -2541,16 +2573,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 36шт</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>8009470297301</t>
+          <t>8009470300919</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2558,7 +2590,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>68.34999999999999</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="78">
@@ -2569,7 +2601,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 48шт</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2578,7 +2610,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2597,16 +2629,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 12шт</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>8009470300919</t>
+          <t>8009470300926</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>641</v>
+        <v>705</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2625,16 +2657,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 24шт</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>8009470300919</t>
+          <t>8009470300926</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>867</v>
+        <v>754</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2653,16 +2685,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 48шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 36шт</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>8009470300919</t>
+          <t>8009470300926</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2681,7 +2713,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 48шт</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2690,7 +2722,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>661</v>
+        <v>528</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2709,16 +2741,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Beef 7кг 1шт</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>8009470300926</t>
+          <t>8009470297271</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>747</v>
+        <v>555</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2726,7 +2758,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.79</v>
+        <v>71.17</v>
       </c>
     </row>
     <row r="84">
@@ -2737,16 +2769,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Beef 7кг 2шт</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>8009470300926</t>
+          <t>8009470297271</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>649</v>
+        <v>769</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2754,7 +2786,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.79</v>
+        <v>71.17</v>
       </c>
     </row>
     <row r="85">
@@ -2765,16 +2797,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 48шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 20кг 1шт</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>8009470300926</t>
+          <t>8009470310048</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>907</v>
+        <v>699</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2782,7 +2814,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.79</v>
+        <v>175.45</v>
       </c>
     </row>
     <row r="86">
@@ -2793,16 +2825,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Beef 7кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 1шт</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8009470297271</t>
+          <t>8009470297172</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2810,7 +2842,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>67.37</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="87">
@@ -2821,16 +2853,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Beef 7кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 2шт</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>8009470297271</t>
+          <t>8009470297172</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>548</v>
+        <v>995</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2838,7 +2870,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>67.37</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="88">
@@ -2849,16 +2881,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 20кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 3шт</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>8009470310048</t>
+          <t>8009470297172</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>693</v>
+        <v>820</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2866,7 +2898,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>175.45</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="89">
@@ -2877,23 +2909,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 06шт</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>8009470297172</t>
+          <t>8009470299954</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>843</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>3.97</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2903,23 +2937,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 12шт</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8009470297172</t>
+          <t>8009470299954</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>3.97</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2929,23 +2965,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 3шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 18шт</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8009470297172</t>
+          <t>8009470299954</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>3.97</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2955,7 +2993,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 06шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 24шт</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2964,14 +3002,16 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>3.97</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2981,7 +3021,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 30шт</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2990,14 +3030,16 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>3.97</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3007,7 +3049,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 18шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 36шт</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3016,14 +3058,16 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>3.97</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3033,23 +3077,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 7кг 1шт</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8009470299954</t>
+          <t>8009470297288</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>71.17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3059,23 +3105,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 30шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 7кг 2шт</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>8009470299954</t>
+          <t>8009470297288</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>71.17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3085,23 +3133,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 12шт</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8009470299954</t>
+          <t>8009470300902</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3111,16 +3161,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 7кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 24шт</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>8009470297288</t>
+          <t>8009470300902</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>536</v>
+        <v>838</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3128,7 +3178,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>67.37</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="99">
@@ -3139,16 +3189,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 7кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 36шт</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>8009470297288</t>
+          <t>8009470300902</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>748</v>
+        <v>592</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3156,7 +3206,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>67.37</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="100">
@@ -3167,7 +3217,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 48шт</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3176,7 +3226,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>714</v>
+        <v>523</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3195,16 +3245,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТЗД Complete TUNA SALM 20кг 1шт</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8009470300902</t>
+          <t>8009470310000</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>706</v>
+        <v>580</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3212,7 +3262,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.79</v>
+        <v>202.61</v>
       </c>
     </row>
     <row r="102">
@@ -3223,16 +3273,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТЗД Complete TUNA SALM 2кг 1шт</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>8009470300902</t>
+          <t>8009470297165</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>913</v>
+        <v>581</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3240,7 +3290,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.79</v>
+        <v>27.07</v>
       </c>
     </row>
     <row r="103">
@@ -3251,16 +3301,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 48шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТЗД Complete TUNA SALM 2кг 2шт</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>8009470300902</t>
+          <t>8009470297165</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>961</v>
+        <v>576</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3268,7 +3318,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.79</v>
+        <v>27.07</v>
       </c>
     </row>
     <row r="104">
@@ -3279,23 +3329,25 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 20кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТЗД Complete TUNA SALM 2кг 3шт</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>8009470310031</t>
+          <t>8009470297165</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>27.07</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3305,16 +3357,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТЗД Complete TUNA SALM 7кг 1шт</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>8009470297134</t>
+          <t>8009470297295</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>611</v>
+        <v>707</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3322,7 +3374,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>28.26</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="106">
@@ -3333,16 +3385,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТЗД Complete TUNA SALM 7кг 2шт</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>8009470297134</t>
+          <t>8009470297295</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>895</v>
+        <v>680</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3350,7 +3402,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>28.26</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="107">
@@ -3361,25 +3413,23 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 3шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 20кг 1шт</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>8009470297134</t>
+          <t>8009470310031</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F107" t="n">
-        <v>28.26</v>
-      </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3389,16 +3439,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 7кг 1шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 1шт</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>8009470297257</t>
+          <t>8009470297134</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>780</v>
+        <v>678</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3406,7 +3456,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>77.81999999999999</v>
+        <v>29.11</v>
       </c>
     </row>
     <row r="109">
@@ -3417,16 +3467,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 7кг 2шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 2шт</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>8009470297257</t>
+          <t>8009470297134</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>823</v>
+        <v>737</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3434,7 +3484,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>77.81999999999999</v>
+        <v>29.11</v>
       </c>
     </row>
     <row r="110">
@@ -3445,16 +3495,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 12шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 3шт</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>8009470300896</t>
+          <t>8009470297134</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>674</v>
+        <v>891</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3462,7 +3512,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.8</v>
+        <v>29.11</v>
       </c>
     </row>
     <row r="111">
@@ -3473,16 +3523,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 24шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 7кг 1шт</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>8009470300896</t>
+          <t>8009470297257</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>576</v>
+        <v>702</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3490,7 +3540,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.8</v>
+        <v>77.81999999999999</v>
       </c>
     </row>
     <row r="112">
@@ -3501,16 +3551,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 36шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 7кг 2шт</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>8009470300896</t>
+          <t>8009470297257</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3518,7 +3568,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.8</v>
+        <v>77.81999999999999</v>
       </c>
     </row>
     <row r="113">
@@ -3529,7 +3579,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 48шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 12шт</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3538,7 +3588,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>831</v>
+        <v>717</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3557,16 +3607,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 12шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 24шт</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>8009470300889</t>
+          <t>8009470300896</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>722</v>
+        <v>999</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3574,7 +3624,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="115">
@@ -3585,16 +3635,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 24шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 36шт</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>8009470300889</t>
+          <t>8009470300896</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>987</v>
+        <v>526</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3602,7 +3652,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="116">
@@ -3613,16 +3663,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 36шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 48шт</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>8009470300889</t>
+          <t>8009470300896</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>845</v>
+        <v>679</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3630,7 +3680,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="117">
@@ -3641,7 +3691,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 48шт</t>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 12шт</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3650,7 +3700,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>906</v>
+        <v>836</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3669,16 +3719,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 12шт</t>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 24шт</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>8009470300414</t>
+          <t>8009470300889</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>794</v>
+        <v>761</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3686,7 +3736,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.53</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="119">
@@ -3697,16 +3747,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 24шт</t>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 36шт</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>8009470300414</t>
+          <t>8009470300889</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>825</v>
+        <v>916</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3714,7 +3764,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.53</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="120">
@@ -3725,16 +3775,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 36шт</t>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 48шт</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>8009470300414</t>
+          <t>8009470300889</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>620</v>
+        <v>818</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3742,7 +3792,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.53</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="121">
@@ -3753,7 +3803,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 48шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 12шт</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3762,7 +3812,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>664</v>
+        <v>563</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3770,7 +3820,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.53</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="122">
@@ -3781,16 +3831,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 24шт</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>8009470300605</t>
+          <t>8009470300414</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>898</v>
+        <v>549</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3798,7 +3848,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.79</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="123">
@@ -3809,16 +3859,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 36шт</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>8009470300605</t>
+          <t>8009470300414</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>992</v>
+        <v>842</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3826,7 +3876,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1.79</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="124">
@@ -3837,16 +3887,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 48шт</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>8009470300605</t>
+          <t>8009470300414</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>898</v>
+        <v>841</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3854,7 +3904,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.79</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="125">
@@ -3865,7 +3915,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 48шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 12шт</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3874,7 +3924,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>680</v>
+        <v>830</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3893,16 +3943,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 24шт</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>8009470387804</t>
+          <t>8009470300605</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>694</v>
+        <v>998</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3910,7 +3960,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3.91</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="127">
@@ -3921,16 +3971,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 36шт</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>8009470387804</t>
+          <t>8009470300605</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>680</v>
+        <v>524</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3938,7 +3988,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3.91</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="128">
@@ -3949,16 +3999,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 18шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 48шт</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>8009470387804</t>
+          <t>8009470300605</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>999</v>
+        <v>533</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3966,7 +4016,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3.91</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="129">
@@ -3977,7 +4027,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 06шт</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3986,7 +4036,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>963</v>
+        <v>763</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4005,7 +4055,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 30шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 12шт</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4014,7 +4064,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>793</v>
+        <v>640</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4033,7 +4083,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 18шт</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4042,7 +4092,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4061,16 +4111,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 24шт</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>8009470300445</t>
+          <t>8009470387804</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>530</v>
+        <v>765</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4078,7 +4128,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2.53</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="133">
@@ -4089,16 +4139,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 30шт</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>8009470300445</t>
+          <t>8009470387804</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>524</v>
+        <v>653</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4106,7 +4156,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2.53</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="134">
@@ -4117,16 +4167,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 36шт</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>8009470300445</t>
+          <t>8009470387804</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>778</v>
+        <v>688</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4134,7 +4184,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2.53</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="135">
@@ -4145,16 +4195,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 48шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ LIGHT CHICKEN 3кг 1шт</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>8009470300445</t>
+          <t>8009470386142</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>791</v>
+        <v>506</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4162,7 +4212,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2.53</v>
+        <v>26.81</v>
       </c>
     </row>
     <row r="136">
@@ -4173,16 +4223,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ LIGHT CHICKEN 3кг 2шт</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>8009470005616</t>
+          <t>8009470386142</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>837</v>
+        <v>894</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4190,7 +4240,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>153.34</v>
+        <v>26.81</v>
       </c>
     </row>
     <row r="137">
@@ -4201,16 +4251,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ LIGHT CHICKEN 3кг 3шт</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>8009470386111</t>
+          <t>8009470386142</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>810</v>
+        <v>643</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4218,7 +4268,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>30.9</v>
+        <v>26.81</v>
       </c>
     </row>
     <row r="138">
@@ -4229,16 +4279,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 12шт</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>8009470386111</t>
+          <t>8009470300445</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>715</v>
+        <v>620</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4246,7 +4296,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>30.9</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="139">
@@ -4257,16 +4307,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 24шт</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>8009470386111</t>
+          <t>8009470300445</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4274,7 +4324,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>30.9</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="140">
@@ -4285,16 +4335,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 15кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 36шт</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>8009470386258</t>
+          <t>8009470300445</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>564</v>
+        <v>947</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4302,7 +4352,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>123.92</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="141">
@@ -4313,16 +4363,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 48шт</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>8009470386012</t>
+          <t>8009470300445</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4330,7 +4380,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>27.72</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="142">
@@ -4341,16 +4391,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 400г 06шт</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>8009470386012</t>
+          <t>8009470387811</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>616</v>
+        <v>904</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4358,7 +4408,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>27.72</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="143">
@@ -4369,16 +4419,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 400г 12шт</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>8009470386012</t>
+          <t>8009470387811</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>953</v>
+        <v>517</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4386,7 +4436,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>27.72</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="144">
@@ -4397,16 +4447,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Perfomance 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 400г 18шт</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>8009470006156</t>
+          <t>8009470387811</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>586</v>
+        <v>915</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4414,7 +4464,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>146.78</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="145">
@@ -4425,16 +4475,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Regular 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 400г 24шт</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>8009470006170</t>
+          <t>8009470387811</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>911</v>
+        <v>954</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4442,7 +4492,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>135.42</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="146">
@@ -4453,16 +4503,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 400г 30шт</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>8009470005609</t>
+          <t>8009470387811</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>797</v>
+        <v>876</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4470,7 +4520,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>153.34</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="147">
@@ -4481,16 +4531,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 400г 36шт</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>8009470386098</t>
+          <t>8009470387811</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4498,7 +4548,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>29.89</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="148">
@@ -4509,16 +4559,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 20кг 1шт</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>8009470386098</t>
+          <t>8009470005616</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>775</v>
+        <v>967</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4526,7 +4576,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>29.89</v>
+        <v>153.34</v>
       </c>
     </row>
     <row r="149">
@@ -4537,25 +4587,23 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 1шт</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>8009470386098</t>
+          <t>8009470386111</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>764</v>
+        <v>0</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F149" t="n">
-        <v>29.89</v>
-      </c>
+      <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4565,25 +4613,23 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 2шт</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>8009470387880</t>
+          <t>8009470386111</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4593,25 +4639,23 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 3шт</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>8009470387880</t>
+          <t>8009470386111</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>871</v>
+        <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F151" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4621,16 +4665,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 18шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 15кг 1шт</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>8009470387880</t>
+          <t>8009470386258</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>675</v>
+        <v>506</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4638,7 +4682,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>3.2</v>
+        <v>122.66</v>
       </c>
     </row>
     <row r="153">
@@ -4649,16 +4693,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 1шт</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>8009470387880</t>
+          <t>8009470386012</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>774</v>
+        <v>602</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4666,7 +4710,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="154">
@@ -4677,16 +4721,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 30шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 2шт</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>8009470387880</t>
+          <t>8009470386012</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>889</v>
+        <v>527</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4694,7 +4738,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="155">
@@ -4705,16 +4749,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 3шт</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>8009470387880</t>
+          <t>8009470386012</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>859</v>
+        <v>798</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4722,7 +4766,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="156">
@@ -4733,16 +4777,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Perfomance 20кг 1шт</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>8009470300438</t>
+          <t>8009470006156</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>672</v>
+        <v>550</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4750,7 +4794,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2.53</v>
+        <v>146.78</v>
       </c>
     </row>
     <row r="157">
@@ -4761,16 +4805,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Regular 20кг 1шт</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>8009470300438</t>
+          <t>8009470006170</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4778,7 +4822,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2.53</v>
+        <v>135.42</v>
       </c>
     </row>
     <row r="158">
@@ -4789,16 +4833,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 20кг 1шт</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>8009470300438</t>
+          <t>8009470005609</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>911</v>
+        <v>530</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4806,7 +4850,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2.53</v>
+        <v>153.34</v>
       </c>
     </row>
     <row r="159">
@@ -4817,16 +4861,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 48шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 1шт</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>8009470300438</t>
+          <t>8009470386098</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4834,7 +4878,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2.53</v>
+        <v>29.89</v>
       </c>
     </row>
     <row r="160">
@@ -4845,16 +4889,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 2шт</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>8009470300629</t>
+          <t>8009470386098</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>814</v>
+        <v>679</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4862,7 +4906,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.79</v>
+        <v>29.89</v>
       </c>
     </row>
     <row r="161">
@@ -4873,16 +4917,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 3шт</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>8009470300629</t>
+          <t>8009470386098</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>605</v>
+        <v>737</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4890,7 +4934,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1.79</v>
+        <v>29.89</v>
       </c>
     </row>
     <row r="162">
@@ -4901,16 +4945,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 06шт</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>8009470300629</t>
+          <t>8009470387880</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>547</v>
+        <v>640</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4918,7 +4962,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1.79</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="163">
@@ -4929,16 +4973,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 48шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 12шт</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>8009470300629</t>
+          <t>8009470387880</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>989</v>
+        <v>818</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4946,7 +4990,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1.79</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="164">
@@ -4957,16 +5001,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 03шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 18шт</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>8009470387903</t>
+          <t>8009470387880</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>706</v>
+        <v>831</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4974,7 +5018,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>7.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="165">
@@ -4985,16 +5029,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 24шт</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>8009470387903</t>
+          <t>8009470387880</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>764</v>
+        <v>659</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5002,7 +5046,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>7.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="166">
@@ -5013,16 +5057,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 09шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 30шт</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>8009470387903</t>
+          <t>8009470387880</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -5030,7 +5074,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>7.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="167">
@@ -5041,16 +5085,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 36шт</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>8009470387903</t>
+          <t>8009470387880</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5058,7 +5102,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>7.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="168">
@@ -5069,16 +5113,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР CHICKEN 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 12шт</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>8009470005647</t>
+          <t>8009470300438</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>722</v>
+        <v>880</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5086,7 +5130,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>145.37</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="169">
@@ -5097,16 +5141,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 03шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 24шт</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>8009470387941</t>
+          <t>8009470300438</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>879</v>
+        <v>705</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -5114,7 +5158,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>7.96</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="170">
@@ -5125,16 +5169,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 36шт</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>8009470387941</t>
+          <t>8009470300438</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>928</v>
+        <v>848</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -5142,7 +5186,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>7.96</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="171">
@@ -5153,16 +5197,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 09шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 48шт</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>8009470387941</t>
+          <t>8009470300438</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -5170,7 +5214,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>7.96</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="172">
@@ -5181,16 +5225,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 12шт</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>8009470387941</t>
+          <t>8009470300629</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>586</v>
+        <v>942</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -5198,7 +5242,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>7.96</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="173">
@@ -5209,16 +5253,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 24шт</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>8009470005678</t>
+          <t>8009470300629</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>868</v>
+        <v>895</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -5226,7 +5270,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>137.64</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="174">
@@ -5237,16 +5281,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 36шт</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>8009470386050</t>
+          <t>8009470300629</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>931</v>
+        <v>984</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -5254,7 +5298,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>29</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="175">
@@ -5265,16 +5309,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 48шт</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>8009470386050</t>
+          <t>8009470300629</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>723</v>
+        <v>821</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -5282,7 +5326,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>29</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="176">
@@ -5293,16 +5337,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 03шт</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>8009470386050</t>
+          <t>8009470387903</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5310,7 +5354,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>29</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="177">
@@ -5321,16 +5365,16 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 06шт</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>8009470005685</t>
+          <t>8009470387903</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>966</v>
+        <v>948</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -5338,7 +5382,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>141.82</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="178">
@@ -5349,16 +5393,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 09шт</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>8009470386067</t>
+          <t>8009470387903</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>641</v>
+        <v>847</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -5366,7 +5410,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>34.88</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="179">
@@ -5377,16 +5421,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 12шт</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>8009470386067</t>
+          <t>8009470387903</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>813</v>
+        <v>597</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5394,7 +5438,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>34.88</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="180">
@@ -5405,16 +5449,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР CHICKEN 20кг 1шт</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>8009470386067</t>
+          <t>8009470005647</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>746</v>
+        <v>893</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5422,7 +5466,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>34.88</v>
+        <v>152.36</v>
       </c>
     </row>
     <row r="181">
@@ -5433,16 +5477,16 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 03шт</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>8009470387859</t>
+          <t>8009470387941</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>931</v>
+        <v>624</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5450,7 +5494,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3.19</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="182">
@@ -5461,16 +5505,16 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 06шт</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>8009470387859</t>
+          <t>8009470387941</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>580</v>
+        <v>954</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5478,7 +5522,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3.19</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="183">
@@ -5489,16 +5533,16 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 18шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 09шт</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>8009470387859</t>
+          <t>8009470387941</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>737</v>
+        <v>578</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5506,7 +5550,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>3.19</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="184">
@@ -5517,16 +5561,16 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 12шт</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>8009470387859</t>
+          <t>8009470387941</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>747</v>
+        <v>706</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5534,7 +5578,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>3.19</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="185">
@@ -5545,16 +5589,16 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 30шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 20кг 1шт</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>8009470387859</t>
+          <t>8009470005678</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>616</v>
+        <v>943</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5562,7 +5606,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>3.19</v>
+        <v>137.64</v>
       </c>
     </row>
     <row r="186">
@@ -5573,16 +5617,16 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 1шт</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>8009470387859</t>
+          <t>8009470386050</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5590,7 +5634,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3.19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187">
@@ -5601,16 +5645,16 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 03шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 2шт</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>8009470387910</t>
+          <t>8009470386050</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>860</v>
+        <v>509</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5618,7 +5662,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>7.9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
@@ -5629,16 +5673,16 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 3шт</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>8009470387910</t>
+          <t>8009470386050</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>852</v>
+        <v>522</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5646,7 +5690,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>7.9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189">
@@ -5657,16 +5701,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 09шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 20кг 1шт</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>8009470387910</t>
+          <t>8009470005685</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>641</v>
+        <v>874</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5674,7 +5718,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>7.9</v>
+        <v>141.82</v>
       </c>
     </row>
     <row r="190">
@@ -5685,16 +5729,16 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 1шт</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>8009470387910</t>
+          <t>8009470386067</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>609</v>
+        <v>727</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5702,7 +5746,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>7.9</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="191">
@@ -5713,16 +5757,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 15кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 2шт</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>8009470386159</t>
+          <t>8009470386067</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>736</v>
+        <v>913</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5730,7 +5774,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>135.78</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="192">
@@ -5741,16 +5785,16 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 3шт</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>8009470387866</t>
+          <t>8009470386067</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>552</v>
+        <v>796</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5758,7 +5802,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>3.18</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="193">
@@ -5769,16 +5813,16 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 06шт</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>8009470387866</t>
+          <t>8009470387859</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5786,7 +5830,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="194">
@@ -5797,16 +5841,16 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 18шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 12шт</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>8009470387866</t>
+          <t>8009470387859</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>993</v>
+        <v>557</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5814,7 +5858,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="195">
@@ -5825,16 +5869,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 18шт</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>8009470387866</t>
+          <t>8009470387859</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>532</v>
+        <v>792</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5842,7 +5886,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="196">
@@ -5853,16 +5897,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 30шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 24шт</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>8009470387866</t>
+          <t>8009470387859</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>662</v>
+        <v>828</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5870,7 +5914,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="197">
@@ -5881,16 +5925,16 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 30шт</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>8009470387866</t>
+          <t>8009470387859</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5898,7 +5942,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="198">
@@ -5909,16 +5953,16 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 36шт</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>8009470005623</t>
+          <t>8009470387859</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5926,7 +5970,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>153.71</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="199">
@@ -5937,16 +5981,16 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 03шт</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>8009470386043</t>
+          <t>8009470387910</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5954,7 +5998,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>30.96</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="200">
@@ -5965,16 +6009,16 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 06шт</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>8009470386043</t>
+          <t>8009470387910</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>525</v>
+        <v>889</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5982,7 +6026,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>30.96</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="201">
@@ -5993,16 +6037,16 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 09шт</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>8009470386043</t>
+          <t>8009470387910</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>979</v>
+        <v>599</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -6010,7 +6054,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>30.96</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="202">
@@ -6021,16 +6065,16 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 15кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 12шт</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>8009470386241</t>
+          <t>8009470387910</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>614</v>
+        <v>540</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -6038,7 +6082,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>144.53</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="203">
@@ -6049,16 +6093,16 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 15кг 1шт</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>8009470386005</t>
+          <t>8009470386159</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>657</v>
+        <v>717</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -6066,7 +6110,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>33.61</v>
+        <v>135.78</v>
       </c>
     </row>
     <row r="204">
@@ -6077,16 +6121,16 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 06шт</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>8009470386005</t>
+          <t>8009470387866</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>715</v>
+        <v>551</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -6094,7 +6138,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>33.61</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="205">
@@ -6105,16 +6149,16 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 12шт</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>8009470386005</t>
+          <t>8009470387866</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>954</v>
+        <v>728</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -6122,7 +6166,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>33.61</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="206">
@@ -6133,16 +6177,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 12шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 18шт</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>8009470300636</t>
+          <t>8009470387866</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>724</v>
+        <v>799</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -6150,7 +6194,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1.79</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="207">
@@ -6161,16 +6205,16 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 24шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 24шт</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>8009470300636</t>
+          <t>8009470387866</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -6178,7 +6222,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1.79</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="208">
@@ -6189,16 +6233,16 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 36шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 30шт</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>8009470300636</t>
+          <t>8009470387866</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>624</v>
+        <v>555</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -6206,7 +6250,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1.79</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="209">
@@ -6217,16 +6261,16 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 48шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 36шт</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>8009470300636</t>
+          <t>8009470387866</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6234,7 +6278,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1.79</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="210">
@@ -6245,16 +6289,16 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 12шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 20кг 1шт</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>8009470300643</t>
+          <t>8009470005623</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>671</v>
+        <v>937</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -6262,7 +6306,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1.79</v>
+        <v>153.71</v>
       </c>
     </row>
     <row r="211">
@@ -6273,16 +6317,16 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 24шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 1шт</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>8009470300643</t>
+          <t>8009470386043</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>785</v>
+        <v>714</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -6290,7 +6334,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1.79</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="212">
@@ -6301,16 +6345,16 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 36шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 2шт</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>8009470300643</t>
+          <t>8009470386043</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>676</v>
+        <v>974</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -6318,7 +6362,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1.79</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="213">
@@ -6329,23 +6373,359 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 3шт</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>8009470386043</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>573</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 15кг 1шт</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>8009470386241</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>531</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>144.53</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>8009470386005</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>886</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 2шт</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>8009470386005</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>729</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 3шт</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>8009470386005</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>640</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>8009470300636</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>631</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>8009470300636</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>688</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>8009470300636</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>998</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 48шт</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>8009470300636</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>873</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>8009470300643</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>792</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>8009470300643</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>533</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>8009470300643</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>563</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 48шт</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>8009470300643</t>
         </is>
       </c>
-      <c r="D213" t="n">
-        <v>502</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-      <c r="F213" t="n">
+      <c r="D225" t="n">
+        <v>515</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
         <v>1.79</v>
       </c>
     </row>

--- a/result/ЗООМ.xlsx
+++ b/result/ЗООМ.xlsx
@@ -1338,7 +1338,7 @@
         <v>231</v>
       </c>
       <c r="D2">
-        <v>965</v>
+        <v>570</v>
       </c>
       <c r="F2" t="s">
         <v>308</v>
@@ -1358,7 +1358,7 @@
         <v>231</v>
       </c>
       <c r="D3">
-        <v>513</v>
+        <v>819</v>
       </c>
       <c r="F3" t="s">
         <v>308</v>
@@ -1378,7 +1378,7 @@
         <v>231</v>
       </c>
       <c r="D4">
-        <v>927</v>
+        <v>777</v>
       </c>
       <c r="F4" t="s">
         <v>308</v>
@@ -1398,7 +1398,7 @@
         <v>232</v>
       </c>
       <c r="D5">
-        <v>518</v>
+        <v>679</v>
       </c>
       <c r="F5" t="s">
         <v>308</v>
@@ -1418,7 +1418,7 @@
         <v>233</v>
       </c>
       <c r="D6">
-        <v>509</v>
+        <v>942</v>
       </c>
       <c r="F6" t="s">
         <v>308</v>
@@ -1438,7 +1438,7 @@
         <v>233</v>
       </c>
       <c r="D7">
-        <v>826</v>
+        <v>793</v>
       </c>
       <c r="F7" t="s">
         <v>308</v>
@@ -1458,7 +1458,7 @@
         <v>233</v>
       </c>
       <c r="D8">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="F8" t="s">
         <v>308</v>
@@ -1478,7 +1478,7 @@
         <v>234</v>
       </c>
       <c r="D9">
-        <v>965</v>
+        <v>654</v>
       </c>
       <c r="F9" t="s">
         <v>308</v>
@@ -1498,7 +1498,7 @@
         <v>234</v>
       </c>
       <c r="D10">
-        <v>579</v>
+        <v>896</v>
       </c>
       <c r="F10" t="s">
         <v>308</v>
@@ -1518,7 +1518,7 @@
         <v>234</v>
       </c>
       <c r="D11">
-        <v>855</v>
+        <v>654</v>
       </c>
       <c r="F11" t="s">
         <v>308</v>
@@ -1538,7 +1538,7 @@
         <v>235</v>
       </c>
       <c r="D12">
-        <v>624</v>
+        <v>879</v>
       </c>
       <c r="F12" t="s">
         <v>308</v>
@@ -1558,7 +1558,7 @@
         <v>235</v>
       </c>
       <c r="D13">
-        <v>704</v>
+        <v>632</v>
       </c>
       <c r="F13" t="s">
         <v>308</v>
@@ -1578,7 +1578,7 @@
         <v>235</v>
       </c>
       <c r="D14">
-        <v>997</v>
+        <v>657</v>
       </c>
       <c r="F14" t="s">
         <v>308</v>
@@ -1598,7 +1598,7 @@
         <v>236</v>
       </c>
       <c r="D15">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="F15" t="s">
         <v>308</v>
@@ -1618,7 +1618,7 @@
         <v>236</v>
       </c>
       <c r="D16">
-        <v>666</v>
+        <v>772</v>
       </c>
       <c r="F16" t="s">
         <v>308</v>
@@ -1638,7 +1638,7 @@
         <v>236</v>
       </c>
       <c r="D17">
-        <v>591</v>
+        <v>826</v>
       </c>
       <c r="F17" t="s">
         <v>308</v>
@@ -1658,7 +1658,7 @@
         <v>237</v>
       </c>
       <c r="D18">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="F18" t="s">
         <v>308</v>
@@ -1678,7 +1678,7 @@
         <v>237</v>
       </c>
       <c r="D19">
-        <v>520</v>
+        <v>783</v>
       </c>
       <c r="F19" t="s">
         <v>308</v>
@@ -1698,7 +1698,7 @@
         <v>237</v>
       </c>
       <c r="D20">
-        <v>621</v>
+        <v>830</v>
       </c>
       <c r="F20" t="s">
         <v>308</v>
@@ -1718,7 +1718,7 @@
         <v>238</v>
       </c>
       <c r="D21">
-        <v>650</v>
+        <v>927</v>
       </c>
       <c r="F21" t="s">
         <v>308</v>
@@ -1738,7 +1738,7 @@
         <v>238</v>
       </c>
       <c r="D22">
-        <v>677</v>
+        <v>896</v>
       </c>
       <c r="F22" t="s">
         <v>308</v>
@@ -1758,7 +1758,7 @@
         <v>238</v>
       </c>
       <c r="D23">
-        <v>783</v>
+        <v>876</v>
       </c>
       <c r="F23" t="s">
         <v>308</v>
@@ -1778,7 +1778,7 @@
         <v>239</v>
       </c>
       <c r="D24">
-        <v>887</v>
+        <v>517</v>
       </c>
       <c r="F24" t="s">
         <v>308</v>
@@ -1798,7 +1798,7 @@
         <v>239</v>
       </c>
       <c r="D25">
-        <v>614</v>
+        <v>723</v>
       </c>
       <c r="F25" t="s">
         <v>308</v>
@@ -1818,7 +1818,7 @@
         <v>239</v>
       </c>
       <c r="D26">
-        <v>508</v>
+        <v>989</v>
       </c>
       <c r="F26" t="s">
         <v>308</v>
@@ -1838,7 +1838,7 @@
         <v>240</v>
       </c>
       <c r="D27">
-        <v>997</v>
+        <v>855</v>
       </c>
       <c r="F27" t="s">
         <v>308</v>
@@ -1858,7 +1858,7 @@
         <v>240</v>
       </c>
       <c r="D28">
-        <v>912</v>
+        <v>604</v>
       </c>
       <c r="F28" t="s">
         <v>308</v>
@@ -1878,7 +1878,7 @@
         <v>240</v>
       </c>
       <c r="D29">
-        <v>691</v>
+        <v>640</v>
       </c>
       <c r="F29" t="s">
         <v>308</v>
@@ -1898,7 +1898,7 @@
         <v>241</v>
       </c>
       <c r="D30">
-        <v>960</v>
+        <v>557</v>
       </c>
       <c r="F30" t="s">
         <v>308</v>
@@ -1918,7 +1918,7 @@
         <v>242</v>
       </c>
       <c r="D31">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="F31" t="s">
         <v>308</v>
@@ -1938,7 +1938,7 @@
         <v>242</v>
       </c>
       <c r="D32">
-        <v>810</v>
+        <v>955</v>
       </c>
       <c r="F32" t="s">
         <v>308</v>
@@ -1958,7 +1958,7 @@
         <v>242</v>
       </c>
       <c r="D33">
-        <v>791</v>
+        <v>567</v>
       </c>
       <c r="F33" t="s">
         <v>308</v>
@@ -1978,7 +1978,7 @@
         <v>243</v>
       </c>
       <c r="D34">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="F34" t="s">
         <v>308</v>
@@ -1998,7 +1998,7 @@
         <v>243</v>
       </c>
       <c r="D35">
-        <v>788</v>
+        <v>616</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -2018,7 +2018,7 @@
         <v>243</v>
       </c>
       <c r="D36">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F36" t="s">
         <v>308</v>
@@ -2038,7 +2038,7 @@
         <v>244</v>
       </c>
       <c r="D37">
-        <v>947</v>
+        <v>863</v>
       </c>
       <c r="F37" t="s">
         <v>308</v>
@@ -2058,7 +2058,7 @@
         <v>245</v>
       </c>
       <c r="D38">
-        <v>536</v>
+        <v>648</v>
       </c>
       <c r="F38" t="s">
         <v>308</v>
@@ -2078,7 +2078,7 @@
         <v>245</v>
       </c>
       <c r="D39">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="F39" t="s">
         <v>308</v>
@@ -2098,7 +2098,7 @@
         <v>245</v>
       </c>
       <c r="D40">
-        <v>834</v>
+        <v>525</v>
       </c>
       <c r="F40" t="s">
         <v>308</v>
@@ -2118,7 +2118,7 @@
         <v>246</v>
       </c>
       <c r="D41">
-        <v>585</v>
+        <v>632</v>
       </c>
       <c r="F41" t="s">
         <v>308</v>
@@ -2138,7 +2138,7 @@
         <v>246</v>
       </c>
       <c r="D42">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="F42" t="s">
         <v>308</v>
@@ -2158,7 +2158,7 @@
         <v>246</v>
       </c>
       <c r="D43">
-        <v>600</v>
+        <v>709</v>
       </c>
       <c r="F43" t="s">
         <v>308</v>
@@ -2178,7 +2178,7 @@
         <v>247</v>
       </c>
       <c r="D44">
-        <v>690</v>
+        <v>598</v>
       </c>
       <c r="F44" t="s">
         <v>308</v>
@@ -2198,7 +2198,7 @@
         <v>247</v>
       </c>
       <c r="D45">
-        <v>715</v>
+        <v>671</v>
       </c>
       <c r="F45" t="s">
         <v>308</v>
@@ -2218,7 +2218,7 @@
         <v>247</v>
       </c>
       <c r="D46">
-        <v>602</v>
+        <v>760</v>
       </c>
       <c r="F46" t="s">
         <v>308</v>
@@ -2238,7 +2238,7 @@
         <v>248</v>
       </c>
       <c r="D47">
-        <v>901</v>
+        <v>610</v>
       </c>
       <c r="F47" t="s">
         <v>308</v>
@@ -2258,7 +2258,7 @@
         <v>248</v>
       </c>
       <c r="D48">
-        <v>876</v>
+        <v>990</v>
       </c>
       <c r="F48" t="s">
         <v>308</v>
@@ -2278,7 +2278,7 @@
         <v>248</v>
       </c>
       <c r="D49">
-        <v>508</v>
+        <v>610</v>
       </c>
       <c r="F49" t="s">
         <v>308</v>
@@ -2298,7 +2298,7 @@
         <v>248</v>
       </c>
       <c r="D50">
-        <v>589</v>
+        <v>757</v>
       </c>
       <c r="F50" t="s">
         <v>308</v>
@@ -2420,7 +2420,7 @@
         <v>250</v>
       </c>
       <c r="D57">
-        <v>951</v>
+        <v>986</v>
       </c>
       <c r="F57" t="s">
         <v>308</v>
@@ -2440,7 +2440,7 @@
         <v>251</v>
       </c>
       <c r="D58">
-        <v>539</v>
+        <v>891</v>
       </c>
       <c r="F58" t="s">
         <v>308</v>
@@ -2460,7 +2460,7 @@
         <v>251</v>
       </c>
       <c r="D59">
-        <v>681</v>
+        <v>735</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -2480,7 +2480,7 @@
         <v>251</v>
       </c>
       <c r="D60">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="F60" t="s">
         <v>308</v>
@@ -2500,7 +2500,7 @@
         <v>252</v>
       </c>
       <c r="D61">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="F61" t="s">
         <v>308</v>
@@ -2520,7 +2520,7 @@
         <v>252</v>
       </c>
       <c r="D62">
-        <v>785</v>
+        <v>985</v>
       </c>
       <c r="F62" t="s">
         <v>308</v>
@@ -2642,7 +2642,7 @@
         <v>254</v>
       </c>
       <c r="D69">
-        <v>991</v>
+        <v>734</v>
       </c>
       <c r="F69" t="s">
         <v>308</v>
@@ -2662,7 +2662,7 @@
         <v>255</v>
       </c>
       <c r="D70">
-        <v>501</v>
+        <v>611</v>
       </c>
       <c r="F70" t="s">
         <v>308</v>
@@ -2682,7 +2682,7 @@
         <v>255</v>
       </c>
       <c r="D71">
-        <v>916</v>
+        <v>681</v>
       </c>
       <c r="F71" t="s">
         <v>308</v>
@@ -2702,7 +2702,7 @@
         <v>255</v>
       </c>
       <c r="D72">
-        <v>657</v>
+        <v>796</v>
       </c>
       <c r="F72" t="s">
         <v>308</v>
@@ -2722,7 +2722,7 @@
         <v>256</v>
       </c>
       <c r="D73">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="F73" t="s">
         <v>308</v>
@@ -2742,7 +2742,7 @@
         <v>256</v>
       </c>
       <c r="D74">
-        <v>688</v>
+        <v>786</v>
       </c>
       <c r="F74" t="s">
         <v>308</v>
@@ -2762,7 +2762,7 @@
         <v>257</v>
       </c>
       <c r="D75">
-        <v>877</v>
+        <v>953</v>
       </c>
       <c r="F75" t="s">
         <v>308</v>
@@ -2782,7 +2782,7 @@
         <v>257</v>
       </c>
       <c r="D76">
-        <v>586</v>
+        <v>979</v>
       </c>
       <c r="F76" t="s">
         <v>308</v>
@@ -2802,7 +2802,7 @@
         <v>257</v>
       </c>
       <c r="D77">
-        <v>996</v>
+        <v>617</v>
       </c>
       <c r="F77" t="s">
         <v>308</v>
@@ -2822,7 +2822,7 @@
         <v>257</v>
       </c>
       <c r="D78">
-        <v>682</v>
+        <v>574</v>
       </c>
       <c r="F78" t="s">
         <v>308</v>
@@ -2842,7 +2842,7 @@
         <v>258</v>
       </c>
       <c r="D79">
-        <v>813</v>
+        <v>532</v>
       </c>
       <c r="F79" t="s">
         <v>308</v>
@@ -2862,7 +2862,7 @@
         <v>258</v>
       </c>
       <c r="D80">
-        <v>780</v>
+        <v>614</v>
       </c>
       <c r="F80" t="s">
         <v>308</v>
@@ -2882,7 +2882,7 @@
         <v>258</v>
       </c>
       <c r="D81">
-        <v>946</v>
+        <v>798</v>
       </c>
       <c r="F81" t="s">
         <v>308</v>
@@ -2902,7 +2902,7 @@
         <v>258</v>
       </c>
       <c r="D82">
-        <v>992</v>
+        <v>962</v>
       </c>
       <c r="F82" t="s">
         <v>308</v>
@@ -2922,7 +2922,7 @@
         <v>259</v>
       </c>
       <c r="D83">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="F83" t="s">
         <v>308</v>
@@ -2942,7 +2942,7 @@
         <v>259</v>
       </c>
       <c r="D84">
-        <v>623</v>
+        <v>841</v>
       </c>
       <c r="F84" t="s">
         <v>308</v>
@@ -2962,7 +2962,7 @@
         <v>260</v>
       </c>
       <c r="D85">
-        <v>878</v>
+        <v>626</v>
       </c>
       <c r="F85" t="s">
         <v>308</v>
@@ -2982,7 +2982,7 @@
         <v>261</v>
       </c>
       <c r="D86">
-        <v>501</v>
+        <v>607</v>
       </c>
       <c r="F86" t="s">
         <v>308</v>
@@ -3002,7 +3002,7 @@
         <v>261</v>
       </c>
       <c r="D87">
-        <v>502</v>
+        <v>621</v>
       </c>
       <c r="F87" t="s">
         <v>308</v>
@@ -3022,7 +3022,7 @@
         <v>261</v>
       </c>
       <c r="D88">
-        <v>723</v>
+        <v>997</v>
       </c>
       <c r="F88" t="s">
         <v>308</v>
@@ -3144,7 +3144,7 @@
         <v>263</v>
       </c>
       <c r="D95">
-        <v>915</v>
+        <v>652</v>
       </c>
       <c r="F95" t="s">
         <v>308</v>
@@ -3164,7 +3164,7 @@
         <v>263</v>
       </c>
       <c r="D96">
-        <v>921</v>
+        <v>890</v>
       </c>
       <c r="F96" t="s">
         <v>308</v>
@@ -3184,7 +3184,7 @@
         <v>264</v>
       </c>
       <c r="D97">
-        <v>944</v>
+        <v>532</v>
       </c>
       <c r="F97" t="s">
         <v>308</v>
@@ -3204,7 +3204,7 @@
         <v>264</v>
       </c>
       <c r="D98">
-        <v>730</v>
+        <v>997</v>
       </c>
       <c r="F98" t="s">
         <v>308</v>
@@ -3224,7 +3224,7 @@
         <v>264</v>
       </c>
       <c r="D99">
-        <v>892</v>
+        <v>532</v>
       </c>
       <c r="F99" t="s">
         <v>308</v>
@@ -3244,7 +3244,7 @@
         <v>265</v>
       </c>
       <c r="D100">
-        <v>644</v>
+        <v>738</v>
       </c>
       <c r="F100" t="s">
         <v>308</v>
@@ -3264,7 +3264,7 @@
         <v>266</v>
       </c>
       <c r="D101">
-        <v>914</v>
+        <v>846</v>
       </c>
       <c r="F101" t="s">
         <v>308</v>
@@ -3284,7 +3284,7 @@
         <v>266</v>
       </c>
       <c r="D102">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="F102" t="s">
         <v>308</v>
@@ -3304,7 +3304,7 @@
         <v>266</v>
       </c>
       <c r="D103">
-        <v>734</v>
+        <v>689</v>
       </c>
       <c r="F103" t="s">
         <v>308</v>
@@ -3324,7 +3324,7 @@
         <v>267</v>
       </c>
       <c r="D104">
-        <v>806</v>
+        <v>950</v>
       </c>
       <c r="F104" t="s">
         <v>308</v>
@@ -3344,7 +3344,7 @@
         <v>267</v>
       </c>
       <c r="D105">
-        <v>694</v>
+        <v>650</v>
       </c>
       <c r="F105" t="s">
         <v>308</v>
@@ -3364,7 +3364,7 @@
         <v>268</v>
       </c>
       <c r="D106">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="F106" t="s">
         <v>308</v>
@@ -3384,7 +3384,7 @@
         <v>269</v>
       </c>
       <c r="D107">
-        <v>701</v>
+        <v>662</v>
       </c>
       <c r="F107" t="s">
         <v>308</v>
@@ -3404,7 +3404,7 @@
         <v>269</v>
       </c>
       <c r="D108">
-        <v>582</v>
+        <v>710</v>
       </c>
       <c r="F108" t="s">
         <v>308</v>
@@ -3424,7 +3424,7 @@
         <v>269</v>
       </c>
       <c r="D109">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="F109" t="s">
         <v>308</v>
@@ -3444,7 +3444,7 @@
         <v>270</v>
       </c>
       <c r="D110">
-        <v>770</v>
+        <v>955</v>
       </c>
       <c r="F110" t="s">
         <v>308</v>
@@ -3464,7 +3464,7 @@
         <v>270</v>
       </c>
       <c r="D111">
-        <v>783</v>
+        <v>838</v>
       </c>
       <c r="F111" t="s">
         <v>308</v>
@@ -3552,7 +3552,7 @@
         <v>272</v>
       </c>
       <c r="D116">
-        <v>881</v>
+        <v>926</v>
       </c>
       <c r="F116" t="s">
         <v>308</v>
@@ -3572,7 +3572,7 @@
         <v>272</v>
       </c>
       <c r="D117">
-        <v>566</v>
+        <v>512</v>
       </c>
       <c r="F117" t="s">
         <v>308</v>
@@ -3592,7 +3592,7 @@
         <v>272</v>
       </c>
       <c r="D118">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="F118" t="s">
         <v>308</v>
@@ -3612,7 +3612,7 @@
         <v>272</v>
       </c>
       <c r="D119">
-        <v>541</v>
+        <v>893</v>
       </c>
       <c r="F119" t="s">
         <v>308</v>
@@ -3700,7 +3700,7 @@
         <v>274</v>
       </c>
       <c r="D124">
-        <v>1000</v>
+        <v>524</v>
       </c>
       <c r="F124" t="s">
         <v>308</v>
@@ -3720,7 +3720,7 @@
         <v>274</v>
       </c>
       <c r="D125">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="F125" t="s">
         <v>308</v>
@@ -3740,7 +3740,7 @@
         <v>274</v>
       </c>
       <c r="D126">
-        <v>990</v>
+        <v>808</v>
       </c>
       <c r="F126" t="s">
         <v>308</v>
@@ -3760,7 +3760,7 @@
         <v>274</v>
       </c>
       <c r="D127">
-        <v>634</v>
+        <v>972</v>
       </c>
       <c r="F127" t="s">
         <v>308</v>
@@ -3780,7 +3780,7 @@
         <v>275</v>
       </c>
       <c r="D128">
-        <v>985</v>
+        <v>536</v>
       </c>
       <c r="F128" t="s">
         <v>308</v>
@@ -3800,7 +3800,7 @@
         <v>275</v>
       </c>
       <c r="D129">
-        <v>944</v>
+        <v>714</v>
       </c>
       <c r="F129" t="s">
         <v>308</v>
@@ -3820,7 +3820,7 @@
         <v>275</v>
       </c>
       <c r="D130">
-        <v>500</v>
+        <v>974</v>
       </c>
       <c r="F130" t="s">
         <v>308</v>
@@ -3840,7 +3840,7 @@
         <v>275</v>
       </c>
       <c r="D131">
-        <v>747</v>
+        <v>900</v>
       </c>
       <c r="F131" t="s">
         <v>308</v>
@@ -3860,7 +3860,7 @@
         <v>275</v>
       </c>
       <c r="D132">
-        <v>888</v>
+        <v>677</v>
       </c>
       <c r="F132" t="s">
         <v>308</v>
@@ -3880,7 +3880,7 @@
         <v>275</v>
       </c>
       <c r="D133">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="F133" t="s">
         <v>308</v>
@@ -3900,7 +3900,7 @@
         <v>276</v>
       </c>
       <c r="D134">
-        <v>564</v>
+        <v>682</v>
       </c>
       <c r="F134" t="s">
         <v>308</v>
@@ -3920,7 +3920,7 @@
         <v>276</v>
       </c>
       <c r="D135">
-        <v>732</v>
+        <v>841</v>
       </c>
       <c r="F135" t="s">
         <v>308</v>
@@ -3940,7 +3940,7 @@
         <v>276</v>
       </c>
       <c r="D136">
-        <v>802</v>
+        <v>852</v>
       </c>
       <c r="F136" t="s">
         <v>308</v>
@@ -3960,7 +3960,7 @@
         <v>277</v>
       </c>
       <c r="D137">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="F137" t="s">
         <v>308</v>
@@ -3980,7 +3980,7 @@
         <v>277</v>
       </c>
       <c r="D138">
-        <v>933</v>
+        <v>738</v>
       </c>
       <c r="F138" t="s">
         <v>308</v>
@@ -4000,7 +4000,7 @@
         <v>277</v>
       </c>
       <c r="D139">
-        <v>837</v>
+        <v>665</v>
       </c>
       <c r="F139" t="s">
         <v>308</v>
@@ -4020,7 +4020,7 @@
         <v>277</v>
       </c>
       <c r="D140">
-        <v>914</v>
+        <v>747</v>
       </c>
       <c r="F140" t="s">
         <v>308</v>
@@ -4142,7 +4142,7 @@
         <v>279</v>
       </c>
       <c r="D147">
-        <v>980</v>
+        <v>810</v>
       </c>
       <c r="F147" t="s">
         <v>308</v>
@@ -4162,7 +4162,7 @@
         <v>280</v>
       </c>
       <c r="D148">
-        <v>640</v>
+        <v>757</v>
       </c>
       <c r="F148" t="s">
         <v>308</v>
@@ -4182,7 +4182,7 @@
         <v>280</v>
       </c>
       <c r="D149">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="F149" t="s">
         <v>308</v>
@@ -4202,7 +4202,7 @@
         <v>280</v>
       </c>
       <c r="D150">
-        <v>934</v>
+        <v>992</v>
       </c>
       <c r="F150" t="s">
         <v>308</v>
@@ -4222,7 +4222,7 @@
         <v>281</v>
       </c>
       <c r="D151">
-        <v>733</v>
+        <v>805</v>
       </c>
       <c r="F151" t="s">
         <v>308</v>
@@ -4242,7 +4242,7 @@
         <v>282</v>
       </c>
       <c r="D152">
-        <v>630</v>
+        <v>781</v>
       </c>
       <c r="F152" t="s">
         <v>308</v>
@@ -4262,7 +4262,7 @@
         <v>282</v>
       </c>
       <c r="D153">
-        <v>754</v>
+        <v>852</v>
       </c>
       <c r="F153" t="s">
         <v>308</v>
@@ -4282,7 +4282,7 @@
         <v>283</v>
       </c>
       <c r="D154">
-        <v>987</v>
+        <v>530</v>
       </c>
       <c r="F154" t="s">
         <v>308</v>
@@ -4336,7 +4336,7 @@
         <v>286</v>
       </c>
       <c r="D157">
-        <v>865</v>
+        <v>982</v>
       </c>
       <c r="F157" t="s">
         <v>308</v>
@@ -4356,7 +4356,7 @@
         <v>286</v>
       </c>
       <c r="D158">
-        <v>616</v>
+        <v>863</v>
       </c>
       <c r="F158" t="s">
         <v>308</v>
@@ -4376,7 +4376,7 @@
         <v>286</v>
       </c>
       <c r="D159">
-        <v>612</v>
+        <v>998</v>
       </c>
       <c r="F159" t="s">
         <v>308</v>
@@ -4498,7 +4498,7 @@
         <v>288</v>
       </c>
       <c r="D166">
-        <v>990</v>
+        <v>905</v>
       </c>
       <c r="F166" t="s">
         <v>308</v>
@@ -4518,7 +4518,7 @@
         <v>288</v>
       </c>
       <c r="D167">
-        <v>972</v>
+        <v>560</v>
       </c>
       <c r="F167" t="s">
         <v>308</v>
@@ -4538,7 +4538,7 @@
         <v>288</v>
       </c>
       <c r="D168">
-        <v>921</v>
+        <v>801</v>
       </c>
       <c r="F168" t="s">
         <v>308</v>
@@ -4558,7 +4558,7 @@
         <v>288</v>
       </c>
       <c r="D169">
-        <v>844</v>
+        <v>564</v>
       </c>
       <c r="F169" t="s">
         <v>308</v>
@@ -4578,7 +4578,7 @@
         <v>289</v>
       </c>
       <c r="D170">
-        <v>966</v>
+        <v>817</v>
       </c>
       <c r="F170" t="s">
         <v>308</v>
@@ -4598,7 +4598,7 @@
         <v>289</v>
       </c>
       <c r="D171">
-        <v>592</v>
+        <v>722</v>
       </c>
       <c r="F171" t="s">
         <v>308</v>
@@ -4618,7 +4618,7 @@
         <v>289</v>
       </c>
       <c r="D172">
-        <v>603</v>
+        <v>841</v>
       </c>
       <c r="F172" t="s">
         <v>308</v>
@@ -4638,7 +4638,7 @@
         <v>289</v>
       </c>
       <c r="D173">
-        <v>530</v>
+        <v>618</v>
       </c>
       <c r="F173" t="s">
         <v>308</v>
@@ -4658,7 +4658,7 @@
         <v>290</v>
       </c>
       <c r="D174">
-        <v>516</v>
+        <v>947</v>
       </c>
       <c r="F174" t="s">
         <v>308</v>
@@ -4678,7 +4678,7 @@
         <v>290</v>
       </c>
       <c r="D175">
-        <v>795</v>
+        <v>892</v>
       </c>
       <c r="F175" t="s">
         <v>308</v>
@@ -4698,7 +4698,7 @@
         <v>290</v>
       </c>
       <c r="D176">
-        <v>670</v>
+        <v>837</v>
       </c>
       <c r="F176" t="s">
         <v>308</v>
@@ -4718,7 +4718,7 @@
         <v>290</v>
       </c>
       <c r="D177">
-        <v>526</v>
+        <v>664</v>
       </c>
       <c r="F177" t="s">
         <v>308</v>
@@ -4738,7 +4738,7 @@
         <v>291</v>
       </c>
       <c r="D178">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="F178" t="s">
         <v>308</v>
@@ -4758,7 +4758,7 @@
         <v>292</v>
       </c>
       <c r="D179">
-        <v>690</v>
+        <v>539</v>
       </c>
       <c r="F179" t="s">
         <v>308</v>
@@ -4778,7 +4778,7 @@
         <v>292</v>
       </c>
       <c r="D180">
-        <v>854</v>
+        <v>749</v>
       </c>
       <c r="F180" t="s">
         <v>308</v>
@@ -4798,7 +4798,7 @@
         <v>292</v>
       </c>
       <c r="D181">
-        <v>539</v>
+        <v>878</v>
       </c>
       <c r="F181" t="s">
         <v>308</v>
@@ -4818,7 +4818,7 @@
         <v>292</v>
       </c>
       <c r="D182">
-        <v>533</v>
+        <v>625</v>
       </c>
       <c r="F182" t="s">
         <v>308</v>
@@ -4838,7 +4838,7 @@
         <v>293</v>
       </c>
       <c r="D183">
-        <v>632</v>
+        <v>837</v>
       </c>
       <c r="F183" t="s">
         <v>308</v>
@@ -4858,7 +4858,7 @@
         <v>294</v>
       </c>
       <c r="D184">
-        <v>602</v>
+        <v>929</v>
       </c>
       <c r="F184" t="s">
         <v>308</v>
@@ -4878,7 +4878,7 @@
         <v>294</v>
       </c>
       <c r="D185">
-        <v>570</v>
+        <v>912</v>
       </c>
       <c r="F185" t="s">
         <v>308</v>
@@ -4898,7 +4898,7 @@
         <v>294</v>
       </c>
       <c r="D186">
-        <v>625</v>
+        <v>508</v>
       </c>
       <c r="F186" t="s">
         <v>308</v>
@@ -4918,7 +4918,7 @@
         <v>295</v>
       </c>
       <c r="D187">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="F187" t="s">
         <v>308</v>
@@ -4955,7 +4955,7 @@
         <v>297</v>
       </c>
       <c r="D189">
-        <v>700</v>
+        <v>553</v>
       </c>
       <c r="F189" t="s">
         <v>308</v>
@@ -4975,7 +4975,7 @@
         <v>297</v>
       </c>
       <c r="D190">
-        <v>918</v>
+        <v>652</v>
       </c>
       <c r="F190" t="s">
         <v>308</v>
@@ -4995,7 +4995,7 @@
         <v>297</v>
       </c>
       <c r="D191">
-        <v>811</v>
+        <v>657</v>
       </c>
       <c r="F191" t="s">
         <v>308</v>
@@ -5117,7 +5117,7 @@
         <v>299</v>
       </c>
       <c r="D198">
-        <v>936</v>
+        <v>705</v>
       </c>
       <c r="F198" t="s">
         <v>308</v>
@@ -5137,7 +5137,7 @@
         <v>299</v>
       </c>
       <c r="D199">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F199" t="s">
         <v>308</v>
@@ -5157,7 +5157,7 @@
         <v>299</v>
       </c>
       <c r="D200">
-        <v>981</v>
+        <v>789</v>
       </c>
       <c r="F200" t="s">
         <v>308</v>
@@ -5177,7 +5177,7 @@
         <v>299</v>
       </c>
       <c r="D201">
-        <v>806</v>
+        <v>881</v>
       </c>
       <c r="F201" t="s">
         <v>308</v>
@@ -5197,7 +5197,7 @@
         <v>300</v>
       </c>
       <c r="D202">
-        <v>782</v>
+        <v>922</v>
       </c>
       <c r="F202" t="s">
         <v>308</v>
@@ -5217,7 +5217,7 @@
         <v>301</v>
       </c>
       <c r="D203">
-        <v>808</v>
+        <v>862</v>
       </c>
       <c r="F203" t="s">
         <v>308</v>
@@ -5237,7 +5237,7 @@
         <v>301</v>
       </c>
       <c r="D204">
-        <v>611</v>
+        <v>841</v>
       </c>
       <c r="F204" t="s">
         <v>308</v>
@@ -5257,7 +5257,7 @@
         <v>301</v>
       </c>
       <c r="D205">
-        <v>709</v>
+        <v>609</v>
       </c>
       <c r="F205" t="s">
         <v>308</v>
@@ -5277,7 +5277,7 @@
         <v>301</v>
       </c>
       <c r="D206">
-        <v>661</v>
+        <v>769</v>
       </c>
       <c r="F206" t="s">
         <v>308</v>
@@ -5297,7 +5297,7 @@
         <v>301</v>
       </c>
       <c r="D207">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F207" t="s">
         <v>308</v>
@@ -5317,7 +5317,7 @@
         <v>301</v>
       </c>
       <c r="D208">
-        <v>693</v>
+        <v>928</v>
       </c>
       <c r="F208" t="s">
         <v>308</v>
@@ -5337,7 +5337,7 @@
         <v>302</v>
       </c>
       <c r="D209">
-        <v>605</v>
+        <v>818</v>
       </c>
       <c r="F209" t="s">
         <v>308</v>
@@ -5357,7 +5357,7 @@
         <v>303</v>
       </c>
       <c r="D210">
-        <v>784</v>
+        <v>585</v>
       </c>
       <c r="F210" t="s">
         <v>308</v>
@@ -5377,7 +5377,7 @@
         <v>303</v>
       </c>
       <c r="D211">
-        <v>899</v>
+        <v>561</v>
       </c>
       <c r="F211" t="s">
         <v>308</v>
@@ -5397,7 +5397,7 @@
         <v>303</v>
       </c>
       <c r="D212">
-        <v>731</v>
+        <v>936</v>
       </c>
       <c r="F212" t="s">
         <v>308</v>
@@ -5417,7 +5417,7 @@
         <v>304</v>
       </c>
       <c r="D213">
-        <v>730</v>
+        <v>973</v>
       </c>
       <c r="F213" t="s">
         <v>308</v>
@@ -5488,7 +5488,7 @@
         <v>306</v>
       </c>
       <c r="D217">
-        <v>500</v>
+        <v>765</v>
       </c>
       <c r="F217" t="s">
         <v>308</v>
@@ -5508,7 +5508,7 @@
         <v>306</v>
       </c>
       <c r="D218">
-        <v>635</v>
+        <v>933</v>
       </c>
       <c r="F218" t="s">
         <v>308</v>
@@ -5528,7 +5528,7 @@
         <v>306</v>
       </c>
       <c r="D219">
-        <v>782</v>
+        <v>693</v>
       </c>
       <c r="F219" t="s">
         <v>308</v>
@@ -5548,7 +5548,7 @@
         <v>306</v>
       </c>
       <c r="D220">
-        <v>709</v>
+        <v>975</v>
       </c>
       <c r="F220" t="s">
         <v>308</v>
@@ -5568,7 +5568,7 @@
         <v>307</v>
       </c>
       <c r="D221">
-        <v>653</v>
+        <v>789</v>
       </c>
       <c r="F221" t="s">
         <v>308</v>
@@ -5588,7 +5588,7 @@
         <v>307</v>
       </c>
       <c r="D222">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F222" t="s">
         <v>308</v>
@@ -5608,7 +5608,7 @@
         <v>307</v>
       </c>
       <c r="D223">
-        <v>926</v>
+        <v>689</v>
       </c>
       <c r="F223" t="s">
         <v>308</v>
@@ -5628,7 +5628,7 @@
         <v>307</v>
       </c>
       <c r="D224">
-        <v>500</v>
+        <v>696</v>
       </c>
       <c r="F224" t="s">
         <v>308</v>
